--- a/SYY.xlsx
+++ b/SYY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF65789-8A7D-45A9-BF5A-7BBDB3BDCDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34017D9D-4F99-41F8-872A-AEC3C5FE98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{7427E263-DBB9-43CA-AFF1-83117181D8BC}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{7427E263-DBB9-43CA-AFF1-83117181D8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +190,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -211,6 +209,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,20 +244,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -585,46 +598,47 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>491.22609999999997</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -632,34 +646,34 @@
         <v>37161.254464999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>733</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
         <f>11869+487</f>
         <v>12356</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -667,8 +681,8 @@
         <v>48784.254464999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -688,48 +702,49 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="3"/>
@@ -749,8 +764,8 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3"/>
@@ -770,8 +785,8 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3"/>
@@ -791,8 +806,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3"/>
@@ -812,8 +827,8 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3"/>
@@ -833,8 +848,8 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="3"/>
@@ -854,8 +869,8 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3"/>
@@ -875,8 +890,8 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3"/>
@@ -896,8 +911,8 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3"/>
@@ -917,8 +932,8 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="3"/>
@@ -938,8 +953,8 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3"/>
@@ -1009,7 +1024,7 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1080,8 +1095,8 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3"/>
@@ -1151,8 +1166,8 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3">
@@ -1242,8 +1257,8 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3"/>
@@ -1313,8 +1328,8 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3">
@@ -1404,8 +1419,8 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="3"/>
@@ -1475,8 +1490,8 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3"/>
@@ -1546,8 +1561,8 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3">
@@ -1637,8 +1652,8 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3"/>
@@ -1708,8 +1723,8 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3">
@@ -1799,7 +1814,7 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1863,39 +1878,39 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="e">
+      <c r="C25" s="7" t="e">
         <f t="shared" ref="C25:H25" si="8">+C23/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="2" t="e">
+      <c r="D25" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="7">
         <f t="shared" si="8"/>
         <v>0.99579017922504842</v>
       </c>
-      <c r="F25" s="2" t="e">
+      <c r="F25" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="2" t="e">
+      <c r="G25" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="2" t="e">
+      <c r="H25" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="7">
         <f>+I23/I26</f>
         <v>0.99588672968880432</v>
       </c>
-      <c r="J25" s="2" t="e">
+      <c r="J25" s="7" t="e">
         <f t="shared" ref="J25" si="9">+J23/J26</f>
         <v>#DIV/0!</v>
       </c>
@@ -1954,8 +1969,8 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3"/>
@@ -2025,7 +2040,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2089,7 +2104,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2153,27 +2168,27 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" ref="G29:H29" si="10">+G14/C14-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f>+I14/E14-1</f>
         <v>4.4036697247706424E-2</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" ref="J29" si="11">+J14/F14-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2232,39 +2247,39 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:I30" si="12">+C16/C14</f>
+      <c r="C30" s="8" t="e">
+        <f t="shared" ref="C30:H30" si="12">+C16/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="12"/>
         <v>0.18593272171253822</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+I16/I14</f>
         <v>0.18321616871704746</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f>+J16/J14</f>
         <v>#DIV/0!</v>
       </c>
@@ -2323,39 +2338,39 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:I31" si="13">+C18/C14</f>
+      <c r="C31" s="8" t="e">
+        <f t="shared" ref="C31:H31" si="13">+C18/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="13"/>
         <v>4.0978593272171251E-2</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+I18/I14</f>
         <v>3.9445420816246829E-2</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f>+J18/J14</f>
         <v>#DIV/0!</v>
       </c>
@@ -2414,39 +2429,39 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="7" t="e">
-        <f t="shared" ref="C32:I32" si="14">+C22/C21</f>
+      <c r="C32" s="8" t="e">
+        <f t="shared" ref="C32:H32" si="14">+C22/C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <f t="shared" si="14"/>
         <v>0.24132730015082957</v>
       </c>
-      <c r="F32" s="7" t="e">
+      <c r="F32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f>+I22/I21</f>
         <v>0.2367601246105919</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f>+J22/J21</f>
         <v>#DIV/0!</v>
       </c>
@@ -2505,7 +2520,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2569,7 +2584,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2633,7 +2648,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2697,7 +2712,7 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="36" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2761,7 +2776,7 @@
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
     </row>
-    <row r="37" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2825,7 +2840,7 @@
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
     </row>
-    <row r="38" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2889,7 +2904,7 @@
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
     </row>
-    <row r="39" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2953,7 +2968,7 @@
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
     </row>
-    <row r="40" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3017,7 +3032,7 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
     </row>
-    <row r="41" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3081,7 +3096,7 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
     </row>
-    <row r="42" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3145,7 +3160,7 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
     </row>
-    <row r="43" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3209,7 +3224,7 @@
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
     </row>
-    <row r="44" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3273,7 +3288,7 @@
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
     </row>
-    <row r="45" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3337,7 +3352,7 @@
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
     </row>
-    <row r="46" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3401,7 +3416,7 @@
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
     </row>
-    <row r="47" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3465,7 +3480,7 @@
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
     </row>
-    <row r="48" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3529,7 +3544,7 @@
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
     </row>
-    <row r="49" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3593,7 +3608,7 @@
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
     </row>
-    <row r="50" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3657,7 +3672,7 @@
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
     </row>
-    <row r="51" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3721,7 +3736,7 @@
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
     </row>
-    <row r="52" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3785,7 +3800,7 @@
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
     </row>
-    <row r="53" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3849,7 +3864,7 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
     </row>
-    <row r="54" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3913,7 +3928,7 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
     </row>
-    <row r="55" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3977,7 +3992,7 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
     </row>
-    <row r="56" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4041,7 +4056,7 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
     </row>
-    <row r="57" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4105,7 +4120,7 @@
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
     </row>
-    <row r="58" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4169,7 +4184,7 @@
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
     </row>
-    <row r="59" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4233,7 +4248,7 @@
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
     </row>
-    <row r="60" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4297,7 +4312,7 @@
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
     </row>
-    <row r="61" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4361,7 +4376,7 @@
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
     </row>
-    <row r="62" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4425,7 +4440,7 @@
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
     </row>
-    <row r="63" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4489,7 +4504,7 @@
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
     </row>
-    <row r="64" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4553,7 +4568,7 @@
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
     </row>
-    <row r="65" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4617,7 +4632,7 @@
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
     </row>
-    <row r="66" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4681,7 +4696,7 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="3"/>
     </row>
-    <row r="67" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4745,7 +4760,7 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
     </row>
-    <row r="68" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4809,7 +4824,7 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
     </row>
-    <row r="69" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4873,7 +4888,7 @@
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
     </row>
-    <row r="70" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4937,7 +4952,7 @@
       <c r="BK70" s="3"/>
       <c r="BL70" s="3"/>
     </row>
-    <row r="71" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5001,7 +5016,7 @@
       <c r="BK71" s="3"/>
       <c r="BL71" s="3"/>
     </row>
-    <row r="72" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5065,7 +5080,7 @@
       <c r="BK72" s="3"/>
       <c r="BL72" s="3"/>
     </row>
-    <row r="73" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5129,7 +5144,7 @@
       <c r="BK73" s="3"/>
       <c r="BL73" s="3"/>
     </row>
-    <row r="74" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5193,7 +5208,7 @@
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
     </row>
-    <row r="75" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5257,7 +5272,7 @@
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
     </row>
-    <row r="76" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5321,7 +5336,7 @@
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
     </row>
-    <row r="77" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5385,7 +5400,7 @@
       <c r="BK77" s="3"/>
       <c r="BL77" s="3"/>
     </row>
-    <row r="78" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5449,7 +5464,7 @@
       <c r="BK78" s="3"/>
       <c r="BL78" s="3"/>
     </row>
-    <row r="79" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5513,7 +5528,7 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="3"/>
     </row>
-    <row r="80" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5577,7 +5592,7 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="3"/>
     </row>
-    <row r="81" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5641,7 +5656,7 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="3"/>
     </row>
-    <row r="82" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5705,7 +5720,7 @@
       <c r="BK82" s="3"/>
       <c r="BL82" s="3"/>
     </row>
-    <row r="83" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5769,7 +5784,7 @@
       <c r="BK83" s="3"/>
       <c r="BL83" s="3"/>
     </row>
-    <row r="84" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5833,7 +5848,7 @@
       <c r="BK84" s="3"/>
       <c r="BL84" s="3"/>
     </row>
-    <row r="85" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5897,7 +5912,7 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
     </row>
-    <row r="86" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5961,7 +5976,7 @@
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
     </row>
-    <row r="87" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6025,7 +6040,7 @@
       <c r="BK87" s="3"/>
       <c r="BL87" s="3"/>
     </row>
-    <row r="88" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6089,7 +6104,7 @@
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
     </row>
-    <row r="89" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6153,7 +6168,7 @@
       <c r="BK89" s="3"/>
       <c r="BL89" s="3"/>
     </row>
-    <row r="90" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6217,7 +6232,7 @@
       <c r="BK90" s="3"/>
       <c r="BL90" s="3"/>
     </row>
-    <row r="91" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6281,7 +6296,7 @@
       <c r="BK91" s="3"/>
       <c r="BL91" s="3"/>
     </row>
-    <row r="92" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6345,7 +6360,7 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="3"/>
     </row>
-    <row r="93" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6409,7 +6424,7 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
     </row>
-    <row r="94" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6473,7 +6488,7 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
     </row>
-    <row r="95" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6537,7 +6552,7 @@
       <c r="BK95" s="3"/>
       <c r="BL95" s="3"/>
     </row>
-    <row r="96" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6601,7 +6616,7 @@
       <c r="BK96" s="3"/>
       <c r="BL96" s="3"/>
     </row>
-    <row r="97" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6665,7 +6680,7 @@
       <c r="BK97" s="3"/>
       <c r="BL97" s="3"/>
     </row>
-    <row r="98" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6729,7 +6744,7 @@
       <c r="BK98" s="3"/>
       <c r="BL98" s="3"/>
     </row>
-    <row r="99" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6793,7 +6808,7 @@
       <c r="BK99" s="3"/>
       <c r="BL99" s="3"/>
     </row>
-    <row r="100" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6857,7 +6872,7 @@
       <c r="BK100" s="3"/>
       <c r="BL100" s="3"/>
     </row>
-    <row r="101" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6921,7 +6936,7 @@
       <c r="BK101" s="3"/>
       <c r="BL101" s="3"/>
     </row>
-    <row r="102" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6985,7 +7000,7 @@
       <c r="BK102" s="3"/>
       <c r="BL102" s="3"/>
     </row>
-    <row r="103" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7049,7 +7064,7 @@
       <c r="BK103" s="3"/>
       <c r="BL103" s="3"/>
     </row>
-    <row r="104" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7113,7 +7128,7 @@
       <c r="BK104" s="3"/>
       <c r="BL104" s="3"/>
     </row>
-    <row r="105" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7177,7 +7192,7 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="3"/>
     </row>
-    <row r="106" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7241,7 +7256,7 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="3"/>
     </row>
-    <row r="107" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7305,7 +7320,7 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="3"/>
     </row>
-    <row r="108" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7369,7 +7384,7 @@
       <c r="BK108" s="3"/>
       <c r="BL108" s="3"/>
     </row>
-    <row r="109" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7433,7 +7448,7 @@
       <c r="BK109" s="3"/>
       <c r="BL109" s="3"/>
     </row>
-    <row r="110" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7497,7 +7512,7 @@
       <c r="BK110" s="3"/>
       <c r="BL110" s="3"/>
     </row>
-    <row r="111" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7561,7 +7576,7 @@
       <c r="BK111" s="3"/>
       <c r="BL111" s="3"/>
     </row>
-    <row r="112" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -7625,7 +7640,7 @@
       <c r="BK112" s="3"/>
       <c r="BL112" s="3"/>
     </row>
-    <row r="113" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -7689,7 +7704,7 @@
       <c r="BK113" s="3"/>
       <c r="BL113" s="3"/>
     </row>
-    <row r="114" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7753,7 +7768,7 @@
       <c r="BK114" s="3"/>
       <c r="BL114" s="3"/>
     </row>
-    <row r="115" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -7817,7 +7832,7 @@
       <c r="BK115" s="3"/>
       <c r="BL115" s="3"/>
     </row>
-    <row r="116" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -7881,7 +7896,7 @@
       <c r="BK116" s="3"/>
       <c r="BL116" s="3"/>
     </row>
-    <row r="117" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7945,7 +7960,7 @@
       <c r="BK117" s="3"/>
       <c r="BL117" s="3"/>
     </row>
-    <row r="118" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8009,7 +8024,7 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="3"/>
     </row>
-    <row r="119" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8073,7 +8088,7 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="3"/>
     </row>
-    <row r="120" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8137,7 +8152,7 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="3"/>
     </row>
-    <row r="121" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8201,7 +8216,7 @@
       <c r="BK121" s="3"/>
       <c r="BL121" s="3"/>
     </row>
-    <row r="122" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8265,7 +8280,7 @@
       <c r="BK122" s="3"/>
       <c r="BL122" s="3"/>
     </row>
-    <row r="123" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8329,7 +8344,7 @@
       <c r="BK123" s="3"/>
       <c r="BL123" s="3"/>
     </row>
-    <row r="124" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8393,7 +8408,7 @@
       <c r="BK124" s="3"/>
       <c r="BL124" s="3"/>
     </row>
-    <row r="125" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8457,7 +8472,7 @@
       <c r="BK125" s="3"/>
       <c r="BL125" s="3"/>
     </row>
-    <row r="126" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8521,7 +8536,7 @@
       <c r="BK126" s="3"/>
       <c r="BL126" s="3"/>
     </row>
-    <row r="127" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -8585,7 +8600,7 @@
       <c r="BK127" s="3"/>
       <c r="BL127" s="3"/>
     </row>
-    <row r="128" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -8649,7 +8664,7 @@
       <c r="BK128" s="3"/>
       <c r="BL128" s="3"/>
     </row>
-    <row r="129" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -8713,7 +8728,7 @@
       <c r="BK129" s="3"/>
       <c r="BL129" s="3"/>
     </row>
-    <row r="130" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8777,7 +8792,7 @@
       <c r="BK130" s="3"/>
       <c r="BL130" s="3"/>
     </row>
-    <row r="131" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -8841,7 +8856,7 @@
       <c r="BK131" s="3"/>
       <c r="BL131" s="3"/>
     </row>
-    <row r="132" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -8905,7 +8920,7 @@
       <c r="BK132" s="3"/>
       <c r="BL132" s="3"/>
     </row>
-    <row r="133" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8969,7 +8984,7 @@
       <c r="BK133" s="3"/>
       <c r="BL133" s="3"/>
     </row>
-    <row r="134" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9033,7 +9048,7 @@
       <c r="BK134" s="3"/>
       <c r="BL134" s="3"/>
     </row>
-    <row r="135" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9097,7 +9112,7 @@
       <c r="BK135" s="3"/>
       <c r="BL135" s="3"/>
     </row>
-    <row r="136" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9161,7 +9176,7 @@
       <c r="BK136" s="3"/>
       <c r="BL136" s="3"/>
     </row>
-    <row r="137" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9225,7 +9240,7 @@
       <c r="BK137" s="3"/>
       <c r="BL137" s="3"/>
     </row>
-    <row r="138" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9289,7 +9304,7 @@
       <c r="BK138" s="3"/>
       <c r="BL138" s="3"/>
     </row>
-    <row r="139" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9353,7 +9368,7 @@
       <c r="BK139" s="3"/>
       <c r="BL139" s="3"/>
     </row>
-    <row r="140" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9417,7 +9432,7 @@
       <c r="BK140" s="3"/>
       <c r="BL140" s="3"/>
     </row>
-    <row r="141" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9481,7 +9496,7 @@
       <c r="BK141" s="3"/>
       <c r="BL141" s="3"/>
     </row>
-    <row r="142" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9545,7 +9560,7 @@
       <c r="BK142" s="3"/>
       <c r="BL142" s="3"/>
     </row>
-    <row r="143" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -9609,7 +9624,7 @@
       <c r="BK143" s="3"/>
       <c r="BL143" s="3"/>
     </row>
-    <row r="144" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9673,7 +9688,7 @@
       <c r="BK144" s="3"/>
       <c r="BL144" s="3"/>
     </row>
-    <row r="145" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9737,7 +9752,7 @@
       <c r="BK145" s="3"/>
       <c r="BL145" s="3"/>
     </row>
-    <row r="146" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9801,7 +9816,7 @@
       <c r="BK146" s="3"/>
       <c r="BL146" s="3"/>
     </row>
-    <row r="147" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9865,7 +9880,7 @@
       <c r="BK147" s="3"/>
       <c r="BL147" s="3"/>
     </row>
-    <row r="148" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -9929,7 +9944,7 @@
       <c r="BK148" s="3"/>
       <c r="BL148" s="3"/>
     </row>
-    <row r="149" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -9993,7 +10008,7 @@
       <c r="BK149" s="3"/>
       <c r="BL149" s="3"/>
     </row>
-    <row r="150" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10057,7 +10072,7 @@
       <c r="BK150" s="3"/>
       <c r="BL150" s="3"/>
     </row>
-    <row r="151" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10121,7 +10136,7 @@
       <c r="BK151" s="3"/>
       <c r="BL151" s="3"/>
     </row>
-    <row r="152" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10185,7 +10200,7 @@
       <c r="BK152" s="3"/>
       <c r="BL152" s="3"/>
     </row>
-    <row r="153" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10249,7 +10264,7 @@
       <c r="BK153" s="3"/>
       <c r="BL153" s="3"/>
     </row>
-    <row r="154" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10313,7 +10328,7 @@
       <c r="BK154" s="3"/>
       <c r="BL154" s="3"/>
     </row>
-    <row r="155" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10377,7 +10392,7 @@
       <c r="BK155" s="3"/>
       <c r="BL155" s="3"/>
     </row>
-    <row r="156" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10441,7 +10456,7 @@
       <c r="BK156" s="3"/>
       <c r="BL156" s="3"/>
     </row>
-    <row r="157" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10505,7 +10520,7 @@
       <c r="BK157" s="3"/>
       <c r="BL157" s="3"/>
     </row>
-    <row r="158" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10569,7 +10584,7 @@
       <c r="BK158" s="3"/>
       <c r="BL158" s="3"/>
     </row>
-    <row r="159" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10633,7 +10648,7 @@
       <c r="BK159" s="3"/>
       <c r="BL159" s="3"/>
     </row>
-    <row r="160" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -10697,7 +10712,7 @@
       <c r="BK160" s="3"/>
       <c r="BL160" s="3"/>
     </row>
-    <row r="161" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -10761,7 +10776,7 @@
       <c r="BK161" s="3"/>
       <c r="BL161" s="3"/>
     </row>
-    <row r="162" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -10825,7 +10840,7 @@
       <c r="BK162" s="3"/>
       <c r="BL162" s="3"/>
     </row>
-    <row r="163" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -10889,7 +10904,7 @@
       <c r="BK163" s="3"/>
       <c r="BL163" s="3"/>
     </row>
-    <row r="164" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -10953,7 +10968,7 @@
       <c r="BK164" s="3"/>
       <c r="BL164" s="3"/>
     </row>
-    <row r="165" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11017,7 +11032,7 @@
       <c r="BK165" s="3"/>
       <c r="BL165" s="3"/>
     </row>
-    <row r="166" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11081,7 +11096,7 @@
       <c r="BK166" s="3"/>
       <c r="BL166" s="3"/>
     </row>
-    <row r="167" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11145,7 +11160,7 @@
       <c r="BK167" s="3"/>
       <c r="BL167" s="3"/>
     </row>
-    <row r="168" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11209,7 +11224,7 @@
       <c r="BK168" s="3"/>
       <c r="BL168" s="3"/>
     </row>
-    <row r="169" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11273,7 +11288,7 @@
       <c r="BK169" s="3"/>
       <c r="BL169" s="3"/>
     </row>
-    <row r="170" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11337,7 +11352,7 @@
       <c r="BK170" s="3"/>
       <c r="BL170" s="3"/>
     </row>
-    <row r="171" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11401,7 +11416,7 @@
       <c r="BK171" s="3"/>
       <c r="BL171" s="3"/>
     </row>
-    <row r="172" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11465,7 +11480,7 @@
       <c r="BK172" s="3"/>
       <c r="BL172" s="3"/>
     </row>
-    <row r="173" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11529,7 +11544,7 @@
       <c r="BK173" s="3"/>
       <c r="BL173" s="3"/>
     </row>
-    <row r="174" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11593,7 +11608,7 @@
       <c r="BK174" s="3"/>
       <c r="BL174" s="3"/>
     </row>
-    <row r="175" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11657,7 +11672,7 @@
       <c r="BK175" s="3"/>
       <c r="BL175" s="3"/>
     </row>
-    <row r="176" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11721,7 +11736,7 @@
       <c r="BK176" s="3"/>
       <c r="BL176" s="3"/>
     </row>
-    <row r="177" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11785,7 +11800,7 @@
       <c r="BK177" s="3"/>
       <c r="BL177" s="3"/>
     </row>
-    <row r="178" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -11849,7 +11864,7 @@
       <c r="BK178" s="3"/>
       <c r="BL178" s="3"/>
     </row>
-    <row r="179" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -11913,7 +11928,7 @@
       <c r="BK179" s="3"/>
       <c r="BL179" s="3"/>
     </row>
-    <row r="180" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -11977,7 +11992,7 @@
       <c r="BK180" s="3"/>
       <c r="BL180" s="3"/>
     </row>
-    <row r="181" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12041,7 +12056,7 @@
       <c r="BK181" s="3"/>
       <c r="BL181" s="3"/>
     </row>
-    <row r="182" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12105,7 +12120,7 @@
       <c r="BK182" s="3"/>
       <c r="BL182" s="3"/>
     </row>
-    <row r="183" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12169,7 +12184,7 @@
       <c r="BK183" s="3"/>
       <c r="BL183" s="3"/>
     </row>
-    <row r="184" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12233,7 +12248,7 @@
       <c r="BK184" s="3"/>
       <c r="BL184" s="3"/>
     </row>
-    <row r="185" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12297,7 +12312,7 @@
       <c r="BK185" s="3"/>
       <c r="BL185" s="3"/>
     </row>
-    <row r="186" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12361,7 +12376,7 @@
       <c r="BK186" s="3"/>
       <c r="BL186" s="3"/>
     </row>
-    <row r="187" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12425,7 +12440,7 @@
       <c r="BK187" s="3"/>
       <c r="BL187" s="3"/>
     </row>
-    <row r="188" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12489,7 +12504,7 @@
       <c r="BK188" s="3"/>
       <c r="BL188" s="3"/>
     </row>
-    <row r="189" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12553,7 +12568,7 @@
       <c r="BK189" s="3"/>
       <c r="BL189" s="3"/>
     </row>
-    <row r="190" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12617,7 +12632,7 @@
       <c r="BK190" s="3"/>
       <c r="BL190" s="3"/>
     </row>
-    <row r="191" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12681,7 +12696,7 @@
       <c r="BK191" s="3"/>
       <c r="BL191" s="3"/>
     </row>
-    <row r="192" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12745,7 +12760,7 @@
       <c r="BK192" s="3"/>
       <c r="BL192" s="3"/>
     </row>
-    <row r="193" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12809,7 +12824,7 @@
       <c r="BK193" s="3"/>
       <c r="BL193" s="3"/>
     </row>
-    <row r="194" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12873,7 +12888,7 @@
       <c r="BK194" s="3"/>
       <c r="BL194" s="3"/>
     </row>
-    <row r="195" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -12937,7 +12952,7 @@
       <c r="BK195" s="3"/>
       <c r="BL195" s="3"/>
     </row>
-    <row r="196" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13001,7 +13016,7 @@
       <c r="BK196" s="3"/>
       <c r="BL196" s="3"/>
     </row>
-    <row r="197" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13065,7 +13080,7 @@
       <c r="BK197" s="3"/>
       <c r="BL197" s="3"/>
     </row>
-    <row r="198" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13129,7 +13144,7 @@
       <c r="BK198" s="3"/>
       <c r="BL198" s="3"/>
     </row>
-    <row r="199" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13193,7 +13208,7 @@
       <c r="BK199" s="3"/>
       <c r="BL199" s="3"/>
     </row>
-    <row r="200" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13257,7 +13272,7 @@
       <c r="BK200" s="3"/>
       <c r="BL200" s="3"/>
     </row>
-    <row r="201" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13321,7 +13336,7 @@
       <c r="BK201" s="3"/>
       <c r="BL201" s="3"/>
     </row>
-    <row r="202" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13385,7 +13400,7 @@
       <c r="BK202" s="3"/>
       <c r="BL202" s="3"/>
     </row>
-    <row r="203" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13449,7 +13464,7 @@
       <c r="BK203" s="3"/>
       <c r="BL203" s="3"/>
     </row>
-    <row r="204" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -13513,7 +13528,7 @@
       <c r="BK204" s="3"/>
       <c r="BL204" s="3"/>
     </row>
-    <row r="205" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13577,7 +13592,7 @@
       <c r="BK205" s="3"/>
       <c r="BL205" s="3"/>
     </row>
-    <row r="206" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13641,7 +13656,7 @@
       <c r="BK206" s="3"/>
       <c r="BL206" s="3"/>
     </row>
-    <row r="207" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13705,7 +13720,7 @@
       <c r="BK207" s="3"/>
       <c r="BL207" s="3"/>
     </row>
-    <row r="208" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13769,7 +13784,7 @@
       <c r="BK208" s="3"/>
       <c r="BL208" s="3"/>
     </row>
-    <row r="209" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13833,7 +13848,7 @@
       <c r="BK209" s="3"/>
       <c r="BL209" s="3"/>
     </row>
-    <row r="210" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13897,7 +13912,7 @@
       <c r="BK210" s="3"/>
       <c r="BL210" s="3"/>
     </row>
-    <row r="211" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13961,7 +13976,7 @@
       <c r="BK211" s="3"/>
       <c r="BL211" s="3"/>
     </row>
-    <row r="212" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14025,7 +14040,7 @@
       <c r="BK212" s="3"/>
       <c r="BL212" s="3"/>
     </row>
-    <row r="213" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14089,7 +14104,7 @@
       <c r="BK213" s="3"/>
       <c r="BL213" s="3"/>
     </row>
-    <row r="214" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14153,7 +14168,7 @@
       <c r="BK214" s="3"/>
       <c r="BL214" s="3"/>
     </row>
-    <row r="215" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14217,7 +14232,7 @@
       <c r="BK215" s="3"/>
       <c r="BL215" s="3"/>
     </row>
-    <row r="216" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14281,7 +14296,7 @@
       <c r="BK216" s="3"/>
       <c r="BL216" s="3"/>
     </row>
-    <row r="217" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14345,7 +14360,7 @@
       <c r="BK217" s="3"/>
       <c r="BL217" s="3"/>
     </row>
-    <row r="218" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14409,7 +14424,7 @@
       <c r="BK218" s="3"/>
       <c r="BL218" s="3"/>
     </row>
-    <row r="219" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -14473,7 +14488,7 @@
       <c r="BK219" s="3"/>
       <c r="BL219" s="3"/>
     </row>
-    <row r="220" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -14537,7 +14552,7 @@
       <c r="BK220" s="3"/>
       <c r="BL220" s="3"/>
     </row>
-    <row r="221" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -14601,7 +14616,7 @@
       <c r="BK221" s="3"/>
       <c r="BL221" s="3"/>
     </row>
-    <row r="222" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -14665,7 +14680,7 @@
       <c r="BK222" s="3"/>
       <c r="BL222" s="3"/>
     </row>
-    <row r="223" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -14729,7 +14744,7 @@
       <c r="BK223" s="3"/>
       <c r="BL223" s="3"/>
     </row>
-    <row r="224" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -14793,7 +14808,7 @@
       <c r="BK224" s="3"/>
       <c r="BL224" s="3"/>
     </row>
-    <row r="225" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -14857,7 +14872,7 @@
       <c r="BK225" s="3"/>
       <c r="BL225" s="3"/>
     </row>
-    <row r="226" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -14921,7 +14936,7 @@
       <c r="BK226" s="3"/>
       <c r="BL226" s="3"/>
     </row>
-    <row r="227" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -14985,7 +15000,7 @@
       <c r="BK227" s="3"/>
       <c r="BL227" s="3"/>
     </row>
-    <row r="228" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15049,7 +15064,7 @@
       <c r="BK228" s="3"/>
       <c r="BL228" s="3"/>
     </row>
-    <row r="229" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15113,7 +15128,7 @@
       <c r="BK229" s="3"/>
       <c r="BL229" s="3"/>
     </row>
-    <row r="230" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15177,7 +15192,7 @@
       <c r="BK230" s="3"/>
       <c r="BL230" s="3"/>
     </row>
-    <row r="231" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15241,7 +15256,7 @@
       <c r="BK231" s="3"/>
       <c r="BL231" s="3"/>
     </row>
-    <row r="232" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15305,7 +15320,7 @@
       <c r="BK232" s="3"/>
       <c r="BL232" s="3"/>
     </row>
-    <row r="233" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -15369,7 +15384,7 @@
       <c r="BK233" s="3"/>
       <c r="BL233" s="3"/>
     </row>
-    <row r="234" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -15433,7 +15448,7 @@
       <c r="BK234" s="3"/>
       <c r="BL234" s="3"/>
     </row>
-    <row r="235" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15497,7 +15512,7 @@
       <c r="BK235" s="3"/>
       <c r="BL235" s="3"/>
     </row>
-    <row r="236" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -15561,7 +15576,7 @@
       <c r="BK236" s="3"/>
       <c r="BL236" s="3"/>
     </row>
-    <row r="237" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -15625,7 +15640,7 @@
       <c r="BK237" s="3"/>
       <c r="BL237" s="3"/>
     </row>
-    <row r="238" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -15689,7 +15704,7 @@
       <c r="BK238" s="3"/>
       <c r="BL238" s="3"/>
     </row>
-    <row r="239" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -15753,7 +15768,7 @@
       <c r="BK239" s="3"/>
       <c r="BL239" s="3"/>
     </row>
-    <row r="240" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -15817,7 +15832,7 @@
       <c r="BK240" s="3"/>
       <c r="BL240" s="3"/>
     </row>
-    <row r="241" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -15881,7 +15896,7 @@
       <c r="BK241" s="3"/>
       <c r="BL241" s="3"/>
     </row>
-    <row r="242" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -15945,7 +15960,7 @@
       <c r="BK242" s="3"/>
       <c r="BL242" s="3"/>
     </row>
-    <row r="243" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -16009,7 +16024,7 @@
       <c r="BK243" s="3"/>
       <c r="BL243" s="3"/>
     </row>
-    <row r="244" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16073,7 +16088,7 @@
       <c r="BK244" s="3"/>
       <c r="BL244" s="3"/>
     </row>
-    <row r="245" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16137,7 +16152,7 @@
       <c r="BK245" s="3"/>
       <c r="BL245" s="3"/>
     </row>
-    <row r="246" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16201,7 +16216,7 @@
       <c r="BK246" s="3"/>
       <c r="BL246" s="3"/>
     </row>
-    <row r="247" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16265,7 +16280,7 @@
       <c r="BK247" s="3"/>
       <c r="BL247" s="3"/>
     </row>
-    <row r="248" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -16329,7 +16344,7 @@
       <c r="BK248" s="3"/>
       <c r="BL248" s="3"/>
     </row>
-    <row r="249" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -16393,7 +16408,7 @@
       <c r="BK249" s="3"/>
       <c r="BL249" s="3"/>
     </row>
-    <row r="250" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -16457,7 +16472,7 @@
       <c r="BK250" s="3"/>
       <c r="BL250" s="3"/>
     </row>
-    <row r="251" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -16521,7 +16536,7 @@
       <c r="BK251" s="3"/>
       <c r="BL251" s="3"/>
     </row>
-    <row r="252" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -16585,7 +16600,7 @@
       <c r="BK252" s="3"/>
       <c r="BL252" s="3"/>
     </row>
-    <row r="253" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -16649,7 +16664,7 @@
       <c r="BK253" s="3"/>
       <c r="BL253" s="3"/>
     </row>
-    <row r="254" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -16713,7 +16728,7 @@
       <c r="BK254" s="3"/>
       <c r="BL254" s="3"/>
     </row>
-    <row r="255" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -16777,7 +16792,7 @@
       <c r="BK255" s="3"/>
       <c r="BL255" s="3"/>
     </row>
-    <row r="256" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -16841,7 +16856,7 @@
       <c r="BK256" s="3"/>
       <c r="BL256" s="3"/>
     </row>
-    <row r="257" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -16905,7 +16920,7 @@
       <c r="BK257" s="3"/>
       <c r="BL257" s="3"/>
     </row>
-    <row r="258" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -16969,7 +16984,7 @@
       <c r="BK258" s="3"/>
       <c r="BL258" s="3"/>
     </row>
-    <row r="259" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -17033,7 +17048,7 @@
       <c r="BK259" s="3"/>
       <c r="BL259" s="3"/>
     </row>
-    <row r="260" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -17097,7 +17112,7 @@
       <c r="BK260" s="3"/>
       <c r="BL260" s="3"/>
     </row>
-    <row r="261" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -17161,7 +17176,7 @@
       <c r="BK261" s="3"/>
       <c r="BL261" s="3"/>
     </row>
-    <row r="262" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -17225,7 +17240,7 @@
       <c r="BK262" s="3"/>
       <c r="BL262" s="3"/>
     </row>
-    <row r="263" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -17289,7 +17304,7 @@
       <c r="BK263" s="3"/>
       <c r="BL263" s="3"/>
     </row>
-    <row r="264" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -17353,7 +17368,7 @@
       <c r="BK264" s="3"/>
       <c r="BL264" s="3"/>
     </row>
-    <row r="265" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -17417,7 +17432,7 @@
       <c r="BK265" s="3"/>
       <c r="BL265" s="3"/>
     </row>
-    <row r="266" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -17481,7 +17496,7 @@
       <c r="BK266" s="3"/>
       <c r="BL266" s="3"/>
     </row>
-    <row r="267" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -17545,7 +17560,7 @@
       <c r="BK267" s="3"/>
       <c r="BL267" s="3"/>
     </row>
-    <row r="268" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -17609,7 +17624,7 @@
       <c r="BK268" s="3"/>
       <c r="BL268" s="3"/>
     </row>
-    <row r="269" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -17673,7 +17688,7 @@
       <c r="BK269" s="3"/>
       <c r="BL269" s="3"/>
     </row>
-    <row r="270" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -17737,7 +17752,7 @@
       <c r="BK270" s="3"/>
       <c r="BL270" s="3"/>
     </row>
-    <row r="271" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -17801,7 +17816,7 @@
       <c r="BK271" s="3"/>
       <c r="BL271" s="3"/>
     </row>
-    <row r="272" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -17865,7 +17880,7 @@
       <c r="BK272" s="3"/>
       <c r="BL272" s="3"/>
     </row>
-    <row r="273" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -17929,7 +17944,7 @@
       <c r="BK273" s="3"/>
       <c r="BL273" s="3"/>
     </row>
-    <row r="274" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -17993,7 +18008,7 @@
       <c r="BK274" s="3"/>
       <c r="BL274" s="3"/>
     </row>
-    <row r="275" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -18057,7 +18072,7 @@
       <c r="BK275" s="3"/>
       <c r="BL275" s="3"/>
     </row>
-    <row r="276" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
